--- a/data/trans_orig/P8_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C21C3407-945D-4A9D-96C1-78CEEF404371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BC26C0-6266-4CD6-B237-97C663866249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55D4ED48-C73A-4254-8A66-876131A423FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0CAD0F7-3570-4C28-B705-1A3025A88B42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,1249 +77,1249 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>28,35%</t>
   </si>
   <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>21,26%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>76,71%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>78,74%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFF1265-2349-46DD-9B7E-FAA39A3A6847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41B918B-A996-4892-B76A-F73FA4B4F353}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2666,7 +2666,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2681,13 @@
         <v>2910780</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2599</v>
@@ -2696,28 +2696,28 @@
         <v>2655183</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5437</v>
       </c>
       <c r="N20" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2759,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B9508-45F7-40A7-A7EE-CA3112D0AB6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDC3A4E-9CCB-4E38-BB66-5077AD6EF185}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2918,13 @@
         <v>18631</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -2933,13 +2933,13 @@
         <v>39899</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2948,13 +2948,13 @@
         <v>58531</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2969,13 @@
         <v>97134</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
@@ -2984,13 +2984,13 @@
         <v>72006</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -2999,13 +2999,13 @@
         <v>169139</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>89497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3088,13 +3088,13 @@
         <v>151808</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>222</v>
@@ -3103,13 +3103,13 @@
         <v>241305</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3124,13 @@
         <v>498207</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -3139,13 +3139,13 @@
         <v>433337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -3154,10 +3154,10 @@
         <v>931544</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>158</v>
@@ -3538,13 +3538,13 @@
         <v>139740</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>256</v>
@@ -3553,13 +3553,13 @@
         <v>273419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -3568,13 +3568,13 @@
         <v>413159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3589,13 @@
         <v>807999</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>747</v>
@@ -3604,13 +3604,13 @@
         <v>778482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1530</v>
@@ -3619,13 +3619,13 @@
         <v>1586481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3693,13 @@
         <v>501388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>830</v>
@@ -3708,13 +3708,13 @@
         <v>901402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1283</v>
@@ -3723,13 +3723,13 @@
         <v>1402790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3744,13 @@
         <v>2925391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2468</v>
@@ -3759,13 +3759,13 @@
         <v>2656907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>5224</v>
@@ -3774,13 +3774,13 @@
         <v>5582298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC17881-8192-484F-9DCE-218DD20F6F65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C2E42A-2684-46BF-BEE6-EBDACED0BE4C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3981,13 @@
         <v>25543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3996,13 +3996,13 @@
         <v>29459</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4011,13 +4011,13 @@
         <v>55002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4032,13 @@
         <v>91003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4047,13 +4047,13 @@
         <v>83901</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -4062,13 +4062,13 @@
         <v>174904</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>79049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -4151,13 +4151,13 @@
         <v>150849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -4166,13 +4166,13 @@
         <v>229898</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4187,13 @@
         <v>479205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
@@ -4202,13 +4202,13 @@
         <v>408630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>871</v>
@@ -4217,13 +4217,13 @@
         <v>887835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4291,13 @@
         <v>150856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -4306,13 +4306,13 @@
         <v>244577</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>360</v>
@@ -4321,13 +4321,13 @@
         <v>395432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4342,13 @@
         <v>871575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>767</v>
@@ -4357,13 +4357,13 @@
         <v>798336</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1568</v>
@@ -4372,13 +4372,13 @@
         <v>1669912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>97623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -4461,13 +4461,13 @@
         <v>163343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
@@ -4476,13 +4476,13 @@
         <v>260966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4497,13 @@
         <v>661929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
@@ -4512,13 +4512,13 @@
         <v>621668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1199</v>
@@ -4527,13 +4527,13 @@
         <v>1283597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4601,13 @@
         <v>117357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>179</v>
@@ -4616,13 +4616,13 @@
         <v>213783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>299</v>
@@ -4631,13 +4631,13 @@
         <v>331139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4652,13 @@
         <v>820210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>780</v>
@@ -4667,13 +4667,13 @@
         <v>829996</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -4682,13 +4682,13 @@
         <v>1650207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4756,13 @@
         <v>470427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>697</v>
@@ -4771,13 +4771,13 @@
         <v>802011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>1165</v>
@@ -4789,10 +4789,10 @@
         <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4807,13 @@
         <v>2923923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>2641</v>
@@ -4822,13 +4822,13 @@
         <v>2742531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>5404</v>
@@ -4840,10 +4840,10 @@
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B2B871-7E98-4DEC-94A3-BFF25D37ADE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAD24A4-B789-4392-A0C9-0A35C6B7B129}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5044,13 @@
         <v>27122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -5059,13 +5059,13 @@
         <v>35773</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>116</v>
@@ -5074,13 +5074,13 @@
         <v>62895</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5095,13 @@
         <v>74860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -5110,13 +5110,13 @@
         <v>94960</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>245</v>
@@ -5125,13 +5125,13 @@
         <v>169820</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5199,13 @@
         <v>82306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>265</v>
@@ -5214,13 +5214,13 @@
         <v>129316</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -5229,13 +5229,13 @@
         <v>211623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5250,13 @@
         <v>467517</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>733</v>
@@ -5265,13 +5265,13 @@
         <v>490651</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1238</v>
@@ -5280,13 +5280,13 @@
         <v>958167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5354,13 @@
         <v>166014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>393</v>
@@ -5369,13 +5369,13 @@
         <v>230835</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>523</v>
@@ -5384,13 +5384,13 @@
         <v>396849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5405,13 @@
         <v>873234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>1123</v>
@@ -5420,13 +5420,13 @@
         <v>828639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>1957</v>
@@ -5435,13 +5435,13 @@
         <v>1701873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,7 +5515,7 @@
         <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -5524,7 +5524,7 @@
         <v>162504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>384</v>
@@ -5539,13 +5539,13 @@
         <v>294175</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,10 +5563,10 @@
         <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>784</v>
@@ -5575,7 +5575,7 @@
         <v>711867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>391</v>
@@ -5590,10 +5590,10 @@
         <v>1308967</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>394</v>
@@ -5685,7 +5685,7 @@
         <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>616</v>
@@ -5733,7 +5733,7 @@
         <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>407</v>
@@ -5837,10 +5837,10 @@
         <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>2028</v>
@@ -5849,10 +5849,10 @@
         <v>1387721</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>418</v>
@@ -5891,7 +5891,7 @@
         <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>6714</v>
@@ -5900,13 +5900,13 @@
         <v>5832483</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P8_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BC26C0-6266-4CD6-B237-97C663866249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE742161-5E13-4821-AE98-8BEEF84515C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0CAD0F7-3570-4C28-B705-1A3025A88B42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{02926F7C-5E93-4FCA-A25B-0696EE6BB624}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población con limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1240 +77,1228 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>28,35%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>18,64%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>81,36%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>73,31%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
   </si>
   <si>
     <t>80,78%</t>
@@ -1731,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41B918B-A996-4892-B76A-F73FA4B4F353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82258CE3-8A18-4460-830D-02F269F7A131}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2666,7 +2654,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,16 +2666,16 @@
         <v>2838</v>
       </c>
       <c r="D20" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2599</v>
@@ -2696,13 +2684,13 @@
         <v>2655183</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5437</v>
@@ -2711,13 +2699,13 @@
         <v>5565962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2717,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDC3A4E-9CCB-4E38-BB66-5077AD6EF185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE756170-46A2-47AD-A4B3-92C108BFCCB4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2906,13 @@
         <v>18631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -2933,13 +2921,13 @@
         <v>39899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2948,13 +2936,13 @@
         <v>58531</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2957,13 @@
         <v>97134</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
@@ -2984,13 +2972,13 @@
         <v>72006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -2999,13 +2987,13 @@
         <v>169139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3061,13 @@
         <v>89497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3088,13 +3076,13 @@
         <v>151808</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>222</v>
@@ -3103,13 +3091,13 @@
         <v>241305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3112,13 @@
         <v>498207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -3139,13 +3127,13 @@
         <v>433337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -3154,13 +3142,13 @@
         <v>931544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3216,13 @@
         <v>162158</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>230</v>
@@ -3243,13 +3231,13 @@
         <v>253008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>375</v>
@@ -3258,13 +3246,13 @@
         <v>415166</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3267,13 @@
         <v>855789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>710</v>
@@ -3294,13 +3282,13 @@
         <v>779176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1501</v>
@@ -3309,13 +3297,13 @@
         <v>1634965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3371,13 @@
         <v>91361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -3398,13 +3386,13 @@
         <v>183268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -3413,13 +3401,13 @@
         <v>274629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3422,13 @@
         <v>666262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>539</v>
@@ -3449,13 +3437,13 @@
         <v>593906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>1148</v>
@@ -3464,13 +3452,13 @@
         <v>1260168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3526,13 @@
         <v>139740</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>256</v>
@@ -3553,13 +3541,13 @@
         <v>273419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -3568,13 +3556,13 @@
         <v>413159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3577,13 @@
         <v>807999</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>747</v>
@@ -3604,13 +3592,13 @@
         <v>778482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1530</v>
@@ -3619,13 +3607,13 @@
         <v>1586481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3681,13 @@
         <v>501388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>830</v>
@@ -3708,13 +3696,13 @@
         <v>901402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1283</v>
@@ -3723,13 +3711,13 @@
         <v>1402790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3732,13 @@
         <v>2925391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2468</v>
@@ -3759,13 +3747,13 @@
         <v>2656907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>5224</v>
@@ -3774,13 +3762,13 @@
         <v>5582298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C2E42A-2684-46BF-BEE6-EBDACED0BE4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0294FE-C29D-4C0B-BCC2-2E5EB931A572}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3969,13 @@
         <v>25543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3996,13 +3984,13 @@
         <v>29459</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4011,13 +3999,13 @@
         <v>55002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4020,13 @@
         <v>91003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4047,13 +4035,13 @@
         <v>83901</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -4062,13 +4050,13 @@
         <v>174904</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4124,13 @@
         <v>79049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -4151,13 +4139,13 @@
         <v>150849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -4166,13 +4154,13 @@
         <v>229898</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4175,13 @@
         <v>479205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
@@ -4202,13 +4190,13 @@
         <v>408630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>871</v>
@@ -4217,13 +4205,13 @@
         <v>887835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4279,13 @@
         <v>150856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -4306,13 +4294,13 @@
         <v>244577</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>360</v>
@@ -4321,13 +4309,13 @@
         <v>395432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4330,13 @@
         <v>871575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>767</v>
@@ -4357,13 +4345,13 @@
         <v>798336</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1568</v>
@@ -4372,13 +4360,13 @@
         <v>1669912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4434,13 @@
         <v>97623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -4461,13 +4449,13 @@
         <v>163343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
@@ -4476,13 +4464,13 @@
         <v>260966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4485,13 @@
         <v>661929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
@@ -4512,13 +4500,13 @@
         <v>621668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>1199</v>
@@ -4527,13 +4515,13 @@
         <v>1283597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4589,13 @@
         <v>117357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>179</v>
@@ -4616,13 +4604,13 @@
         <v>213783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>299</v>
@@ -4631,13 +4619,13 @@
         <v>331139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4640,13 @@
         <v>820210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>780</v>
@@ -4667,13 +4655,13 @@
         <v>829996</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -4777,7 +4765,7 @@
         <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>56</v>
       </c>
       <c r="M19" s="7">
         <v>1165</v>
@@ -4789,10 +4777,10 @@
         <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4795,13 @@
         <v>2923923</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>2641</v>
@@ -4822,13 +4810,13 @@
         <v>2742531</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>5404</v>
@@ -4840,10 +4828,10 @@
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAD24A4-B789-4392-A0C9-0A35C6B7B129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFBEA9B-FAC5-4AED-A399-62A3CA2DD865}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5032,13 @@
         <v>27122</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -5059,13 +5047,13 @@
         <v>35773</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>116</v>
@@ -5074,13 +5062,13 @@
         <v>62895</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5083,13 @@
         <v>74860</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -5217,10 +5205,10 @@
         <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -5229,13 +5217,13 @@
         <v>211623</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5238,13 @@
         <v>467517</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>733</v>
@@ -5265,13 +5253,13 @@
         <v>490651</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>1238</v>
@@ -5280,13 +5268,13 @@
         <v>958167</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5342,13 @@
         <v>166014</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>393</v>
@@ -5369,13 +5357,13 @@
         <v>230835</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>523</v>
@@ -5384,13 +5372,13 @@
         <v>396849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5393,13 @@
         <v>873234</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>1123</v>
@@ -5420,13 +5408,13 @@
         <v>828639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>1957</v>
@@ -5435,13 +5423,13 @@
         <v>1701873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,10 +5497,10 @@
         <v>131671</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>54</v>
@@ -5524,13 +5512,13 @@
         <v>162504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>401</v>
@@ -5539,13 +5527,13 @@
         <v>294175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5548,13 @@
         <v>597101</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>784</v>
@@ -5575,13 +5563,13 @@
         <v>711867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>1322</v>
@@ -5590,13 +5578,13 @@
         <v>1308967</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5652,13 @@
         <v>144346</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>434</v>
@@ -5679,13 +5667,13 @@
         <v>277834</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>616</v>
@@ -5694,13 +5682,13 @@
         <v>422179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5703,13 @@
         <v>821057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>1128</v>
@@ -5730,13 +5718,13 @@
         <v>872598</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>1952</v>
@@ -5745,13 +5733,13 @@
         <v>1693656</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5807,13 @@
         <v>551459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1437</v>
@@ -5834,13 +5822,13 @@
         <v>836262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>2028</v>
@@ -5849,13 +5837,13 @@
         <v>1387721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5858,13 @@
         <v>2833769</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>3929</v>
@@ -5885,13 +5873,13 @@
         <v>2998714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>6714</v>
@@ -5900,13 +5888,13 @@
         <v>5832483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
